--- a/设计文档/策划文档V0.0.xlsx
+++ b/设计文档/策划文档V0.0.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19764" windowHeight="13391"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="整体设计" sheetId="1" r:id="rId1"/>
+    <sheet name="功能模块设计" sheetId="2" r:id="rId2"/>
+    <sheet name="更新日志" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>大模块</t>
   </si>
@@ -54,18 +54,16 @@
     <t>地格系统</t>
   </si>
   <si>
-    <t xml:space="preserve">一个地格，其中储存着建筑槽以及单位列表，玩家可以通过点击地格了解地格中的信息，一个地格为游戏地图的基本单元
+    <t>一个地格，其中储存着建筑槽以及单位列表，玩家可以通过点击地格了解地格中的信息，一个地格为游戏地图的基本单元
 1，储存有状态和建筑槽，按照规则随机生成
-2，点击事件显示出操作UI用于地格的操作
-</t>
+2，点击事件显示出操作UI用于地格的操作</t>
   </si>
   <si>
     <t>地图初始化</t>
   </si>
   <si>
-    <t xml:space="preserve">一个Actor，在游戏开始时接受玩家的设置信息，对地图进行初始化，并对地图进行一定量必要的操作
-1，开局时接受玩家设置，对地图进行初始化
-</t>
+    <t>一个Actor，在游戏开始时接受玩家的设置信息，对地图进行初始化，并对地图进行一定量必要的操作
+1，开局时接受玩家设置，对地图进行初始化</t>
   </si>
   <si>
     <t>地图模型UI</t>
@@ -201,18 +199,27 @@
   <si>
     <t>储存游戏过程中，需要同步到游戏服务器上的数据的一个集合</t>
   </si>
+  <si>
+    <t>小模块</t>
+  </si>
+  <si>
+    <t>功能模块</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +229,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,6 +243,128 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,128 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -374,6 +387,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,13 +411,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,181 +483,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,17 +650,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -655,11 +657,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,17 +687,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,23 +729,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,156 +765,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,405 +1270,405 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="70.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="18.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="5" max="5" width="70.7777777777778" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="13.4444444444444" style="4" customWidth="1"/>
+    <col min="9" max="10" width="14.7777777777778" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="57.6" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="57.6" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="57.6" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1674,14 +1690,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1693,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
